--- a/エンジン/prog01/Resources/Map/map作成用.xlsx
+++ b/エンジン/prog01/Resources/Map/map作成用.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\K020G1199\gameTaishou\エンジン\prog01\Resources\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEA38A53-D9F7-4057-80E1-803B5316F153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F115228-5E37-4594-9878-16B3CC8F53BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="6210" yWindow="915" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testMap" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -659,14 +659,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -990,11 +983,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AP15" sqref="AP15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1105,49 +1098,49 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
         <v>0</v>
@@ -1165,34 +1158,34 @@
         <v>0</v>
       </c>
       <c r="V2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="1">
         <v>1</v>
@@ -1203,49 +1196,49 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1">
         <v>0</v>
@@ -1263,34 +1256,34 @@
         <v>0</v>
       </c>
       <c r="V3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="1">
         <v>1</v>
@@ -1301,49 +1294,49 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
         <v>0</v>
@@ -1361,34 +1354,34 @@
         <v>0</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="1">
         <v>1</v>
@@ -1399,49 +1392,49 @@
         <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1">
         <v>0</v>
@@ -1459,34 +1452,34 @@
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="1">
         <v>1</v>
@@ -1497,49 +1490,49 @@
         <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="1">
         <v>0</v>
@@ -1557,34 +1550,34 @@
         <v>0</v>
       </c>
       <c r="V6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="1">
         <v>1</v>
@@ -1595,49 +1588,49 @@
         <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="1">
         <v>0</v>
@@ -1655,34 +1648,34 @@
         <v>0</v>
       </c>
       <c r="V7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="1">
         <v>1</v>
@@ -1693,49 +1686,49 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
         <v>0</v>
@@ -1753,34 +1746,34 @@
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="1">
         <v>1</v>
@@ -1791,49 +1784,49 @@
         <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
         <v>0</v>
@@ -1851,34 +1844,34 @@
         <v>0</v>
       </c>
       <c r="V9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="1">
         <v>1</v>
@@ -1889,49 +1882,49 @@
         <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
         <v>0</v>
@@ -1958,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>0</v>
@@ -1987,49 +1980,49 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
@@ -2056,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>0</v>
@@ -2085,49 +2078,49 @@
         <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
         <v>0</v>
@@ -2183,49 +2176,49 @@
         <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="1">
         <v>0</v>
@@ -2281,49 +2274,49 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
         <v>0</v>
@@ -2379,49 +2372,49 @@
         <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1">
         <v>0</v>
@@ -2439,34 +2432,34 @@
         <v>0</v>
       </c>
       <c r="V15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="1">
         <v>1</v>
@@ -2477,49 +2470,49 @@
         <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -2537,34 +2530,34 @@
         <v>0</v>
       </c>
       <c r="V16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="1">
         <v>1</v>
@@ -2575,49 +2568,49 @@
         <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="1">
         <v>0</v>
@@ -2629,40 +2622,40 @@
         <v>0</v>
       </c>
       <c r="T17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="1">
         <v>1</v>
@@ -2673,49 +2666,49 @@
         <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="1">
         <v>0</v>
@@ -2733,34 +2726,34 @@
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="1">
         <v>1</v>
@@ -2771,49 +2764,49 @@
         <v>1</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="1">
         <v>0</v>
@@ -2831,34 +2824,34 @@
         <v>0</v>
       </c>
       <c r="V19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="1">
         <v>1</v>
@@ -2869,49 +2862,49 @@
         <v>1</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="1">
         <v>0</v>
@@ -2929,34 +2922,34 @@
         <v>0</v>
       </c>
       <c r="V20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="1">
         <v>1</v>
@@ -2967,49 +2960,49 @@
         <v>1</v>
       </c>
       <c r="B21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="1">
         <v>0</v>
@@ -3027,34 +3020,34 @@
         <v>0</v>
       </c>
       <c r="V21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="1">
         <v>1</v>
@@ -3095,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="1">
         <v>0</v>
@@ -3125,34 +3118,34 @@
         <v>0</v>
       </c>
       <c r="V22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="1">
         <v>1</v>
@@ -3193,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -3223,34 +3216,34 @@
         <v>0</v>
       </c>
       <c r="V23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="1">
         <v>1</v>
@@ -3321,34 +3314,34 @@
         <v>0</v>
       </c>
       <c r="V24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="1">
         <v>1</v>
@@ -3419,34 +3412,34 @@
         <v>0</v>
       </c>
       <c r="V25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="1">
         <v>1</v>
@@ -3517,34 +3510,34 @@
         <v>0</v>
       </c>
       <c r="V26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="1">
         <v>1</v>
@@ -3570,79 +3563,79 @@
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="1">
         <v>1</v>
@@ -3683,64 +3676,64 @@
         <v>0</v>
       </c>
       <c r="L28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="1">
         <v>1</v>
@@ -3781,64 +3774,64 @@
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="1">
         <v>1</v>
@@ -3870,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -3879,64 +3872,64 @@
         <v>0</v>
       </c>
       <c r="L30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="1">
         <v>1</v>
@@ -3977,64 +3970,64 @@
         <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="1">
         <v>1</v>
@@ -4141,10 +4134,10 @@
   </sheetData>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>

--- a/エンジン/prog01/Resources/Map/map作成用.xlsx
+++ b/エンジン/prog01/Resources/Map/map作成用.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\K020G1199\gameTaishou\エンジン\prog01\Resources\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA36FBAC-E5C3-46E8-9072-11EFC8443BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D3D054-88F0-4AD2-AB71-315C630974A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,77 +659,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -1056,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D56" sqref="D53:BK56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1900,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>0</v>
@@ -1912,10 +1842,10 @@
         <v>0</v>
       </c>
       <c r="AB5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="1">
         <v>0</v>
@@ -1930,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="AH5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>0</v>
@@ -1942,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="AL5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="1">
         <v>0</v>
@@ -2091,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>0</v>
@@ -2103,10 +2033,10 @@
         <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="1">
         <v>0</v>
@@ -2121,10 +2051,10 @@
         <v>0</v>
       </c>
       <c r="AH6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>0</v>
@@ -2133,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="AL6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="1">
         <v>0</v>
@@ -2664,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="X9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>0</v>
@@ -2706,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="AL9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="1">
         <v>0</v>
@@ -2855,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>0</v>
@@ -2897,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="AL10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="1">
         <v>0</v>
@@ -3201,52 +3131,52 @@
         <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="1">
         <v>0</v>
@@ -3276,52 +3206,52 @@
         <v>0</v>
       </c>
       <c r="AK12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA12" s="1">
         <v>0</v>
@@ -3392,40 +3322,40 @@
         <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="1">
         <v>1</v>
@@ -3434,10 +3364,10 @@
         <v>1</v>
       </c>
       <c r="Z13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="1">
         <v>0</v>
@@ -3467,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="AK13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="1">
         <v>1</v>
@@ -3476,43 +3406,43 @@
         <v>1</v>
       </c>
       <c r="AN13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="1">
         <v>0</v>
@@ -3583,40 +3513,40 @@
         <v>0</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="1">
         <v>1</v>
@@ -3625,10 +3555,10 @@
         <v>1</v>
       </c>
       <c r="Z14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="1">
         <v>0</v>
@@ -3658,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" s="1">
         <v>1</v>
@@ -3667,43 +3597,43 @@
         <v>1</v>
       </c>
       <c r="AN14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA14" s="1">
         <v>0</v>
@@ -3774,52 +3704,52 @@
         <v>0</v>
       </c>
       <c r="L15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="1">
         <v>0</v>
@@ -3849,52 +3779,52 @@
         <v>0</v>
       </c>
       <c r="AK15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA15" s="1">
         <v>0</v>
@@ -3965,16 +3895,16 @@
         <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="1">
         <v>0</v>
@@ -4076,16 +4006,16 @@
         <v>0</v>
       </c>
       <c r="AW16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="1">
         <v>0</v>
@@ -4156,16 +4086,16 @@
         <v>0</v>
       </c>
       <c r="L17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="1">
         <v>0</v>
@@ -4192,10 +4122,10 @@
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>0</v>
@@ -4234,10 +4164,10 @@
         <v>0</v>
       </c>
       <c r="AL17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="1">
         <v>0</v>
@@ -4267,16 +4197,16 @@
         <v>0</v>
       </c>
       <c r="AW17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17" s="1">
         <v>0</v>
@@ -4347,16 +4277,16 @@
         <v>0</v>
       </c>
       <c r="L18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="1">
         <v>0</v>
@@ -4383,10 +4313,10 @@
         <v>0</v>
       </c>
       <c r="X18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>0</v>
@@ -4425,10 +4355,10 @@
         <v>0</v>
       </c>
       <c r="AL18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN18" s="1">
         <v>0</v>
@@ -4458,16 +4388,16 @@
         <v>0</v>
       </c>
       <c r="AW18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA18" s="1">
         <v>0</v>
@@ -4538,16 +4468,16 @@
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="1">
         <v>0</v>
@@ -4649,16 +4579,16 @@
         <v>0</v>
       </c>
       <c r="AW19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA19" s="1">
         <v>0</v>
@@ -4729,16 +4659,16 @@
         <v>0</v>
       </c>
       <c r="L20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="1">
         <v>0</v>
@@ -4840,16 +4770,16 @@
         <v>0</v>
       </c>
       <c r="AW20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="1">
         <v>0</v>
@@ -4920,16 +4850,16 @@
         <v>0</v>
       </c>
       <c r="L21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="1">
         <v>0</v>
@@ -5031,16 +4961,16 @@
         <v>0</v>
       </c>
       <c r="AW21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA21" s="1">
         <v>0</v>
@@ -5111,16 +5041,16 @@
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="1">
         <v>0</v>
@@ -5222,16 +5152,16 @@
         <v>0</v>
       </c>
       <c r="AW22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22" s="1">
         <v>0</v>
@@ -5302,16 +5232,16 @@
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="1">
         <v>0</v>
@@ -5413,16 +5343,16 @@
         <v>0</v>
       </c>
       <c r="AW23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA23" s="1">
         <v>0</v>
@@ -5493,16 +5423,16 @@
         <v>0</v>
       </c>
       <c r="L24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="1">
         <v>0</v>
@@ -5604,16 +5534,16 @@
         <v>0</v>
       </c>
       <c r="AW24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA24" s="1">
         <v>0</v>
@@ -5672,10 +5602,10 @@
         <v>0</v>
       </c>
       <c r="H25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1">
         <v>0</v>
@@ -5684,22 +5614,22 @@
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="1">
         <v>0</v>
@@ -5720,52 +5650,52 @@
         <v>0</v>
       </c>
       <c r="X25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN25" s="1">
         <v>0</v>
@@ -5786,34 +5716,34 @@
         <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV25" s="1">
         <v>0</v>
       </c>
       <c r="AW25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA25" s="1">
         <v>0</v>
       </c>
       <c r="BB25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
         <v>0</v>
@@ -5863,10 +5793,10 @@
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1">
         <v>0</v>
@@ -5875,22 +5805,22 @@
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="1">
         <v>0</v>
@@ -5911,52 +5841,52 @@
         <v>0</v>
       </c>
       <c r="X26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN26" s="1">
         <v>0</v>
@@ -5977,34 +5907,34 @@
         <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV26" s="1">
         <v>0</v>
       </c>
       <c r="AW26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA26" s="1">
         <v>0</v>
       </c>
       <c r="BB26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>0</v>
@@ -6054,10 +5984,10 @@
         <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1">
         <v>0</v>
@@ -6066,22 +5996,22 @@
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1">
         <v>0</v>
@@ -6102,10 +6032,10 @@
         <v>0</v>
       </c>
       <c r="X27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" s="1">
         <v>0</v>
@@ -6144,10 +6074,10 @@
         <v>0</v>
       </c>
       <c r="AL27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN27" s="1">
         <v>0</v>
@@ -6168,34 +6098,34 @@
         <v>0</v>
       </c>
       <c r="AT27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV27" s="1">
         <v>0</v>
       </c>
       <c r="AW27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA27" s="1">
         <v>0</v>
       </c>
       <c r="BB27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD27" s="1">
         <v>0</v>
@@ -6245,10 +6175,10 @@
         <v>0</v>
       </c>
       <c r="H28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1">
         <v>0</v>
@@ -6269,10 +6199,10 @@
         <v>0</v>
       </c>
       <c r="P28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="1">
         <v>0</v>
@@ -6293,10 +6223,10 @@
         <v>0</v>
       </c>
       <c r="X28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="1">
         <v>0</v>
@@ -6335,10 +6265,10 @@
         <v>0</v>
       </c>
       <c r="AL28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN28" s="1">
         <v>0</v>
@@ -6359,10 +6289,10 @@
         <v>0</v>
       </c>
       <c r="AT28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV28" s="1">
         <v>0</v>
@@ -6383,10 +6313,10 @@
         <v>0</v>
       </c>
       <c r="BB28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD28" s="1">
         <v>0</v>
@@ -6436,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1">
         <v>0</v>
@@ -6460,10 +6390,10 @@
         <v>0</v>
       </c>
       <c r="P29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" s="1">
         <v>0</v>
@@ -6484,10 +6414,10 @@
         <v>0</v>
       </c>
       <c r="X29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="1">
         <v>0</v>
@@ -6526,10 +6456,10 @@
         <v>0</v>
       </c>
       <c r="AL29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN29" s="1">
         <v>0</v>
@@ -6550,10 +6480,10 @@
         <v>0</v>
       </c>
       <c r="AT29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV29" s="1">
         <v>0</v>
@@ -6574,10 +6504,10 @@
         <v>0</v>
       </c>
       <c r="BB29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD29" s="1">
         <v>0</v>
@@ -6627,10 +6557,10 @@
         <v>0</v>
       </c>
       <c r="H30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1">
         <v>0</v>
@@ -6651,10 +6581,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
@@ -6741,10 +6671,10 @@
         <v>0</v>
       </c>
       <c r="AT30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV30" s="1">
         <v>0</v>
@@ -6765,10 +6695,10 @@
         <v>0</v>
       </c>
       <c r="BB30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD30" s="1">
         <v>0</v>
@@ -6818,10 +6748,10 @@
         <v>0</v>
       </c>
       <c r="H31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -6842,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="P31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
@@ -6932,10 +6862,10 @@
         <v>0</v>
       </c>
       <c r="AT31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV31" s="1">
         <v>0</v>
@@ -6956,10 +6886,10 @@
         <v>0</v>
       </c>
       <c r="BB31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD31" s="1">
         <v>0</v>
@@ -7009,10 +6939,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1">
         <v>0</v>
@@ -7033,10 +6963,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="1">
         <v>0</v>
@@ -7123,10 +7053,10 @@
         <v>0</v>
       </c>
       <c r="AT32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV32" s="1">
         <v>0</v>
@@ -7147,10 +7077,10 @@
         <v>0</v>
       </c>
       <c r="BB32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD32" s="1">
         <v>0</v>
@@ -7200,10 +7130,10 @@
         <v>0</v>
       </c>
       <c r="H33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="1">
         <v>0</v>
@@ -7224,10 +7154,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="1">
         <v>0</v>
@@ -7314,10 +7244,10 @@
         <v>0</v>
       </c>
       <c r="AT33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV33" s="1">
         <v>0</v>
@@ -7338,10 +7268,10 @@
         <v>0</v>
       </c>
       <c r="BB33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD33" s="1">
         <v>0</v>
@@ -7391,10 +7321,10 @@
         <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="1">
         <v>0</v>
@@ -7415,10 +7345,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34" s="1">
         <v>0</v>
@@ -7505,10 +7435,10 @@
         <v>0</v>
       </c>
       <c r="AT34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV34" s="1">
         <v>0</v>
@@ -7529,10 +7459,10 @@
         <v>0</v>
       </c>
       <c r="BB34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD34" s="1">
         <v>0</v>
@@ -7582,10 +7512,10 @@
         <v>0</v>
       </c>
       <c r="H35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="1">
         <v>0</v>
@@ -7606,10 +7536,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35" s="1">
         <v>0</v>
@@ -7630,10 +7560,10 @@
         <v>0</v>
       </c>
       <c r="X35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="1">
         <v>0</v>
@@ -7672,10 +7602,10 @@
         <v>0</v>
       </c>
       <c r="AL35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN35" s="1">
         <v>0</v>
@@ -7696,10 +7626,10 @@
         <v>0</v>
       </c>
       <c r="AT35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV35" s="1">
         <v>0</v>
@@ -7720,10 +7650,10 @@
         <v>0</v>
       </c>
       <c r="BB35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD35" s="1">
         <v>0</v>
@@ -7773,10 +7703,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="1">
         <v>0</v>
@@ -7797,10 +7727,10 @@
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
         <v>0</v>
@@ -7821,10 +7751,10 @@
         <v>0</v>
       </c>
       <c r="X36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="1">
         <v>0</v>
@@ -7863,10 +7793,10 @@
         <v>0</v>
       </c>
       <c r="AL36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN36" s="1">
         <v>0</v>
@@ -7887,10 +7817,10 @@
         <v>0</v>
       </c>
       <c r="AT36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV36" s="1">
         <v>0</v>
@@ -7911,10 +7841,10 @@
         <v>0</v>
       </c>
       <c r="BB36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD36" s="1">
         <v>0</v>
@@ -7964,10 +7894,10 @@
         <v>0</v>
       </c>
       <c r="H37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="1">
         <v>0</v>
@@ -7976,22 +7906,22 @@
         <v>0</v>
       </c>
       <c r="L37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="1">
         <v>0</v>
@@ -8012,10 +7942,10 @@
         <v>0</v>
       </c>
       <c r="X37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="1">
         <v>0</v>
@@ -8054,10 +7984,10 @@
         <v>0</v>
       </c>
       <c r="AL37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN37" s="1">
         <v>0</v>
@@ -8078,34 +8008,34 @@
         <v>0</v>
       </c>
       <c r="AT37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV37" s="1">
         <v>0</v>
       </c>
       <c r="AW37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA37" s="1">
         <v>0</v>
       </c>
       <c r="BB37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD37" s="1">
         <v>0</v>
@@ -8155,10 +8085,10 @@
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" s="1">
         <v>0</v>
@@ -8167,22 +8097,22 @@
         <v>0</v>
       </c>
       <c r="L38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38" s="1">
         <v>0</v>
@@ -8203,52 +8133,52 @@
         <v>0</v>
       </c>
       <c r="X38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="1">
         <v>0</v>
@@ -8269,34 +8199,34 @@
         <v>0</v>
       </c>
       <c r="AT38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV38" s="1">
         <v>0</v>
       </c>
       <c r="AW38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA38" s="1">
         <v>0</v>
       </c>
       <c r="BB38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD38" s="1">
         <v>0</v>
@@ -8346,10 +8276,10 @@
         <v>0</v>
       </c>
       <c r="H39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="1">
         <v>0</v>
@@ -8358,22 +8288,22 @@
         <v>0</v>
       </c>
       <c r="L39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" s="1">
         <v>0</v>
@@ -8394,52 +8324,52 @@
         <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN39" s="1">
         <v>0</v>
@@ -8460,34 +8390,34 @@
         <v>0</v>
       </c>
       <c r="AT39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV39" s="1">
         <v>0</v>
       </c>
       <c r="AW39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA39" s="1">
         <v>0</v>
       </c>
       <c r="BB39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD39" s="1">
         <v>0</v>
@@ -8549,16 +8479,16 @@
         <v>0</v>
       </c>
       <c r="L40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="1">
         <v>0</v>
@@ -8660,16 +8590,16 @@
         <v>0</v>
       </c>
       <c r="AW40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA40" s="1">
         <v>0</v>
@@ -8740,16 +8670,16 @@
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="1">
         <v>0</v>
@@ -8851,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="AW41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA41" s="1">
         <v>0</v>
@@ -8931,16 +8861,16 @@
         <v>0</v>
       </c>
       <c r="L42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="1">
         <v>0</v>
@@ -9042,16 +8972,16 @@
         <v>0</v>
       </c>
       <c r="AW42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA42" s="1">
         <v>0</v>
@@ -9122,16 +9052,16 @@
         <v>0</v>
       </c>
       <c r="L43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="1">
         <v>0</v>
@@ -9233,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="AW43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA43" s="1">
         <v>0</v>
@@ -9313,16 +9243,16 @@
         <v>0</v>
       </c>
       <c r="L44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="1">
         <v>0</v>
@@ -9424,16 +9354,16 @@
         <v>0</v>
       </c>
       <c r="AW44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA44" s="1">
         <v>0</v>
@@ -9504,16 +9434,16 @@
         <v>0</v>
       </c>
       <c r="L45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="1">
         <v>0</v>
@@ -9615,16 +9545,16 @@
         <v>0</v>
       </c>
       <c r="AW45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA45" s="1">
         <v>0</v>
@@ -9695,16 +9625,16 @@
         <v>0</v>
       </c>
       <c r="L46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="1">
         <v>0</v>
@@ -9806,16 +9736,16 @@
         <v>0</v>
       </c>
       <c r="AW46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA46" s="1">
         <v>0</v>
@@ -9886,16 +9816,16 @@
         <v>0</v>
       </c>
       <c r="L47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="1">
         <v>0</v>
@@ -9997,16 +9927,16 @@
         <v>0</v>
       </c>
       <c r="AW47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA47" s="1">
         <v>0</v>
@@ -10077,16 +10007,16 @@
         <v>0</v>
       </c>
       <c r="L48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="1">
         <v>0</v>
@@ -10188,16 +10118,16 @@
         <v>0</v>
       </c>
       <c r="AW48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA48" s="1">
         <v>0</v>
@@ -10268,52 +10198,52 @@
         <v>0</v>
       </c>
       <c r="L49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB49" s="1">
         <v>0</v>
@@ -10343,52 +10273,52 @@
         <v>0</v>
       </c>
       <c r="AK49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA49" s="1">
         <v>0</v>
@@ -10459,52 +10389,52 @@
         <v>0</v>
       </c>
       <c r="L50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB50" s="1">
         <v>0</v>
@@ -10534,52 +10464,52 @@
         <v>0</v>
       </c>
       <c r="AK50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA50" s="1">
         <v>0</v>
@@ -10650,52 +10580,52 @@
         <v>0</v>
       </c>
       <c r="L51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB51" s="1">
         <v>0</v>
@@ -10725,52 +10655,52 @@
         <v>0</v>
       </c>
       <c r="AK51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA51" s="1">
         <v>0</v>
@@ -10841,52 +10771,52 @@
         <v>0</v>
       </c>
       <c r="L52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB52" s="1">
         <v>0</v>
@@ -10916,52 +10846,52 @@
         <v>0</v>
       </c>
       <c r="AK52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA52" s="1">
         <v>0</v>
